--- a/template/cadangan/TransportTemplate.xlsx
+++ b/template/cadangan/TransportTemplate.xlsx
@@ -15,7 +15,19 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="akun">Sheet1!$C$7</definedName>
+    <definedName name="akun_title">Sheet1!$B$7</definedName>
+    <definedName name="daftar">Sheet1!$C$2</definedName>
+    <definedName name="giat_title">Sheet1!$B$4</definedName>
+    <definedName name="kegiatan">Sheet1!$C$4</definedName>
+    <definedName name="komp_title">Sheet1!$B$6</definedName>
+    <definedName name="komponen">Sheet1!$C$6</definedName>
+    <definedName name="outp_title">Sheet1!$B$5</definedName>
+    <definedName name="output">Sheet1!$C$5</definedName>
     <definedName name="periode">Sheet1!$C$8</definedName>
+    <definedName name="prog">Sheet1!$B$3</definedName>
+    <definedName name="prog_title">Sheet1!$B$3</definedName>
+    <definedName name="program">Sheet1!$C$3</definedName>
     <definedName name="tanggal">Sheet1!$C$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,42 +40,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DAFTAR</t>
   </si>
   <si>
-    <t>TRANSPORT LOKAL DOSEN DAN ASISTEN DOSEN SEKOLAH TINGGI ILMU STATISTIK  SEMESTER GENAP TAHUN 2016/2017 (BPS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">PROGRAM (054.01.01) </t>
   </si>
   <si>
-    <t>PROGRAM DUKUNGAN MANAJEMEN DAN PELAKSANAAN TUGAS TEKNIS LAINNYA BPS</t>
-  </si>
-  <si>
     <t>KEGIATAN (2888)</t>
   </si>
   <si>
-    <t>PENYELENGGARAAN SEKOLAH TINGGI ILMU STATISTIK</t>
-  </si>
-  <si>
     <t>OUTPUT (001)</t>
   </si>
   <si>
-    <t>MAHASISWA STIS YANG BERKUALITAS DAN UNGGUL</t>
-  </si>
-  <si>
     <t>KOMPONEN (703)</t>
   </si>
   <si>
-    <t>PENYELENGGARAAN PROGRAM DIPLOMA IV</t>
-  </si>
-  <si>
     <t>AKUN (524113)</t>
-  </si>
-  <si>
-    <t>BELANJA PERJALANAN DINAS DALAM KOTA</t>
   </si>
   <si>
     <t xml:space="preserve">PERIODE </t>
@@ -516,7 +510,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,22 +535,18 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -565,11 +555,9 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -578,11 +566,9 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -591,11 +577,9 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -604,11 +588,9 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -617,7 +599,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -628,49 +610,49 @@
     </row>
     <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="H11" s="7"/>
     </row>
